--- a/docs/to_do.xlsx
+++ b/docs/to_do.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\kitchen\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="16275" windowHeight="4425"/>
   </bookViews>
@@ -16,33 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>RTA Kitchen To Do List</t>
   </si>
   <si>
-    <t>add another "continue shopping" link on the right hand "cart" side of the page</t>
+    <t>upload Photos folder to GIT repository</t>
   </si>
   <si>
-    <t>add a grey screen to the left hand part of the page when the cart is open</t>
+    <t>upload new scope of work</t>
   </si>
   <si>
-    <t>make it so where a user can add another cabinet color to their shopping cart</t>
+    <t>coordinate with your workers</t>
   </si>
   <si>
-    <t>include price on assembly option in pulldown - this is not affected by any items being on sale</t>
-  </si>
-  <si>
-    <t>include credit card icons along with Paypal option and check</t>
-  </si>
-  <si>
-    <t>fix missing session id on cart</t>
-  </si>
-  <si>
-    <t>add shipping calculator to check out page</t>
-  </si>
-  <si>
-    <t>done</t>
+    <t>specs on door_shop.php page</t>
   </si>
 </sst>
 </file>
@@ -90,6 +83,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -137,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +168,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,50 +391,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
